--- a/try2.xlsx
+++ b/try2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Try me</t>
   </si>
@@ -363,26 +363,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I7"/>
+  <dimension ref="B2:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
         <v>1</v>
       </c>
     </row>

--- a/try2.xlsx
+++ b/try2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Try me</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>SDs</t>
+  </si>
+  <si>
+    <t>I am the master branch</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I7"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,6 +389,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/try2.xlsx
+++ b/try2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Try me</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>SDs</t>
+  </si>
+  <si>
+    <t>I am the master branch</t>
   </si>
 </sst>
 </file>
@@ -363,32 +366,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L8"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L8" t="s">
-        <v>1</v>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
